--- a/figures/anx_dep_figure_bar_ecdf.xlsx
+++ b/figures/anx_dep_figure_bar_ecdf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzboz\Desktop\Postdoc\Research\GamblingStudies\Participant Data\RSF and Main Combined\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzboz\Desktop\GitHub\economic-decision-making-ambiguity\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61472C72-3CE5-440C-8AF9-58258A101BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1EE00-94E3-4FEA-80BE-57E7C3DDA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="805" xr2:uid="{AC642855-18E4-4684-AB45-5FEEFB43A344}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="805" xr2:uid="{AC642855-18E4-4684-AB45-5FEEFB43A344}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar,ECDF" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SE</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>Dep High Stakes</t>
-  </si>
-  <si>
-    <t>ColorAnxLow</t>
-  </si>
-  <si>
-    <t>ColorDepLow</t>
-  </si>
-  <si>
-    <t>ColorAnxHigh</t>
-  </si>
-  <si>
-    <t>ColorDepHigh</t>
   </si>
   <si>
     <t>Anxiety
@@ -8166,10 +8154,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF369"/>
+  <dimension ref="C1:AF369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8199,7 +8187,7 @@
     <col min="31" max="31" width="0.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="12:32" x14ac:dyDescent="0.35">
       <c r="L1">
         <v>0.4</v>
       </c>
@@ -8219,7 +8207,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="12:32" x14ac:dyDescent="0.35">
       <c r="L2">
         <f>L1*2</f>
         <v>0.8</v>
@@ -8254,7 +8242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N3">
         <f>N$1/100-$L$1</f>
         <v>0.6</v>
@@ -8284,7 +8272,7 @@
         <v>1.1428570000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N4">
         <f t="shared" ref="N4:N67" si="0">N3+$L$2/COUNT(X:X)</f>
         <v>0.60217983651226159</v>
@@ -8314,7 +8302,7 @@
         <v>2.2857140000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N5">
         <f t="shared" si="0"/>
         <v>0.6043596730245232</v>
@@ -8344,7 +8332,7 @@
         <v>3.4285709999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N6">
         <f t="shared" si="0"/>
         <v>0.60653950953678482</v>
@@ -8374,7 +8362,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N7">
         <f t="shared" si="0"/>
         <v>0.60871934604904643</v>
@@ -8405,7 +8393,7 @@
       </c>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N8">
         <f t="shared" si="0"/>
         <v>0.61089918256130804</v>
@@ -8435,7 +8423,7 @@
         <v>4.7142860000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N9">
         <f t="shared" si="0"/>
         <v>0.61307901907356965</v>
@@ -8465,7 +8453,7 @@
         <v>5.7142859999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N10">
         <f t="shared" si="0"/>
         <v>0.61525885558583127</v>
@@ -8495,7 +8483,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N11">
         <f t="shared" si="0"/>
         <v>0.61743869209809288</v>
@@ -8526,7 +8514,7 @@
       </c>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N12">
         <f t="shared" si="0"/>
         <v>0.61961852861035449</v>
@@ -8556,7 +8544,7 @@
         <v>6.4285709999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N13">
         <f t="shared" si="0"/>
         <v>0.6217983651226161</v>
@@ -8586,10 +8574,7 @@
         <v>6.7142859999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
+    <row r="14" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N14">
         <f t="shared" si="0"/>
         <v>0.62397820163487772</v>
@@ -8619,10 +8604,7 @@
         <v>6.8571430000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
+    <row r="15" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N15">
         <f t="shared" si="0"/>
         <v>0.62615803814713933</v>
@@ -8652,10 +8634,7 @@
         <v>7.4285710000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
+    <row r="16" spans="12:32" x14ac:dyDescent="0.35">
       <c r="N16">
         <f t="shared" si="0"/>
         <v>0.62833787465940094</v>
@@ -8685,10 +8664,7 @@
         <v>7.4285710000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
+    <row r="17" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N17">
         <f t="shared" si="0"/>
         <v>0.63051771117166255</v>
@@ -8718,7 +8694,7 @@
         <v>7.5714290000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N18">
         <f t="shared" si="0"/>
         <v>0.63269754768392417</v>
@@ -8748,7 +8724,7 @@
         <v>7.5714290000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N19">
         <f t="shared" si="0"/>
         <v>0.63487738419618578</v>
@@ -8778,7 +8754,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N20">
         <f t="shared" si="0"/>
         <v>0.63705722070844739</v>
@@ -8808,7 +8784,7 @@
         <v>8.2857139999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N21">
         <f t="shared" si="0"/>
         <v>0.639237057220709</v>
@@ -8838,7 +8814,7 @@
         <v>8.428571E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N22">
         <f t="shared" si="0"/>
         <v>0.64141689373297062</v>
@@ -8868,7 +8844,7 @@
         <v>8.428571E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N23">
         <f t="shared" si="0"/>
         <v>0.64359673024523223</v>
@@ -8898,7 +8874,7 @@
         <v>8.8571430000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N24">
         <f t="shared" si="0"/>
         <v>0.64577656675749384</v>
@@ -8928,7 +8904,7 @@
         <v>9.4285709999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N25">
         <f t="shared" si="0"/>
         <v>0.64795640326975545</v>
@@ -8958,7 +8934,7 @@
         <v>9.7142859999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N26">
         <f t="shared" si="0"/>
         <v>0.65013623978201707</v>
@@ -8988,7 +8964,7 @@
         <v>9.8571430000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N27">
         <f t="shared" si="0"/>
         <v>0.65231607629427868</v>
@@ -9018,7 +8994,7 @@
         <v>0.10142857</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N28">
         <f t="shared" si="0"/>
         <v>0.65449591280654029</v>
@@ -9048,7 +9024,7 @@
         <v>0.10285714</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N29">
         <f t="shared" si="0"/>
         <v>0.6566757493188019</v>
@@ -9078,7 +9054,7 @@
         <v>0.10285714</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N30">
         <f t="shared" si="0"/>
         <v>0.65885558583106352</v>
@@ -9108,7 +9084,7 @@
         <v>0.11142857</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N31">
         <f t="shared" si="0"/>
         <v>0.66103542234332513</v>
@@ -9138,7 +9114,7 @@
         <v>0.11142857</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="14:30" x14ac:dyDescent="0.35">
       <c r="N32">
         <f t="shared" si="0"/>
         <v>0.66321525885558674</v>
@@ -9417,7 +9393,7 @@
     </row>
     <row r="41" spans="3:30" ht="29" x14ac:dyDescent="0.35">
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <f>AVERAGE(X:X)</f>
@@ -9458,7 +9434,7 @@
     </row>
     <row r="42" spans="3:30" ht="29" x14ac:dyDescent="0.35">
       <c r="C42" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <f>AVERAGE(Z:Z)</f>
@@ -9499,7 +9475,7 @@
     </row>
     <row r="43" spans="3:30" ht="29" x14ac:dyDescent="0.35">
       <c r="C43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <f>AVERAGE(AB:AB)</f>
@@ -9540,7 +9516,7 @@
     </row>
     <row r="44" spans="3:30" ht="29" x14ac:dyDescent="0.35">
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <f>AVERAGE(AD:AD)</f>

--- a/figures/anx_dep_figure_bar_ecdf.xlsx
+++ b/figures/anx_dep_figure_bar_ecdf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzboz\Desktop\GitHub\economic-decision-making-ambiguity\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1EE00-94E3-4FEA-80BE-57E7C3DDA4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC9924-9E52-46A3-AE62-5E18189281F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="805" xr2:uid="{AC642855-18E4-4684-AB45-5FEEFB43A344}"/>
   </bookViews>
@@ -168,6 +168,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFED7D31"/>
+      <color rgb="FF4472C4"/>
       <color rgb="FFD5D000"/>
       <color rgb="FF1B9E77"/>
       <color rgb="FF7570B3"/>
@@ -176,8 +178,6 @@
       <color rgb="FFBEBADA"/>
       <color rgb="FFFFD92F"/>
       <color rgb="FFBC80BD"/>
-      <color rgb="FFE41A1C"/>
-      <color rgb="FF80B1D3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -212,10 +212,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1"/>
+              <a:defRPr sz="1200" b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:rPr lang="en-US" sz="1200" b="1"/>
               <a:t>Trait Anxiety and Depression</a:t>
             </a:r>
           </a:p>
@@ -268,8 +268,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D95F02">
-                  <a:alpha val="30000"/>
+                <a:srgbClr val="ED7D31">
+                  <a:alpha val="29804"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln>
@@ -290,7 +290,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5D000">
+                <a:srgbClr val="4472C4">
                   <a:alpha val="29804"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -312,9 +312,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7570B3">
+                <a:schemeClr val="accent2">
                   <a:alpha val="30000"/>
-                </a:srgbClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -334,7 +334,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0">
+                <a:srgbClr val="4472C4">
                   <a:alpha val="30000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -488,9 +488,9 @@
             <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D95F02">
+                <a:schemeClr val="accent2">
                   <a:alpha val="50000"/>
-                </a:srgbClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2749,7 +2749,7 @@
             <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D5D000">
+                <a:srgbClr val="4472C4">
                   <a:alpha val="49804"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -4068,9 +4068,9 @@
             <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7570B3">
+                <a:schemeClr val="accent2">
                   <a:alpha val="50196"/>
-                </a:srgbClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -6329,7 +6329,7 @@
             <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0">
+                <a:srgbClr val="4472C4">
                   <a:alpha val="49804"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -7649,10 +7649,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0"/>
+                  <a:defRPr sz="1200" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
+                  <a:rPr lang="en-US" sz="1200" b="0"/>
                   <a:t>Emotion and Experiment</a:t>
                 </a:r>
               </a:p>
@@ -7662,8 +7662,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45874545613531037"/>
-              <c:y val="0.93837756405028139"/>
+              <c:x val="0.42042086219942859"/>
+              <c:y val="0.93837763327698342"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7672,6 +7672,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="974386768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -7708,7 +7718,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7721,7 +7731,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Anxiety/Depression Composite Score (0-1)</a:t>
                 </a:r>
               </a:p>
@@ -7760,7 +7770,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8151,13 +8161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B3530A-0CAF-4C8C-A740-254C327AE064}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:AF369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
